--- a/wzrv/expdata/2007sig.xlsx
+++ b/wzrv/expdata/2007sig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580254E-DDD1-BC4A-BD65-A6A4CB4FE4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC69F7-456A-F24E-90BB-EF17CA863FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
   <si>
     <t>cms</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>syst3_c</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -444,22 +447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="19" width="10.33203125" style="1"/>
-    <col min="20" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="1"/>
-    <col min="24" max="24" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16" max="20" width="10.33203125" style="1"/>
+    <col min="21" max="23" width="10.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1"/>
+    <col min="25" max="25" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,67 +476,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -546,75 +552,78 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>630.29999999999995</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.06</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.45</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.48</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.17</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.67</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1.9</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N23" si="0">G2/100*F2</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O23" si="0">H2/100*G2</f>
         <v>0.37817999999999996</v>
       </c>
-      <c r="O2" s="1">
-        <f t="shared" ref="O2:O23" si="1">H2/100*F2</f>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P23" si="1">I2/100*G2</f>
         <v>2.8363499999999999</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P23" si="2">I2/100*F2</f>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:Q23" si="2">J2/100*G2</f>
         <v>2.5211999999999999</v>
       </c>
-      <c r="Q2" s="1">
-        <f t="shared" ref="Q2:Q23" si="3">J2/100*F2</f>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R23" si="3">K2/100*G2</f>
         <v>3.0254399999999997</v>
       </c>
-      <c r="R2" s="1">
-        <f t="shared" ref="R2:R23" si="4">K2/100*F2</f>
+      <c r="S2" s="1">
+        <f t="shared" ref="S2:S23" si="4">L2/100*G2</f>
         <v>1.07151</v>
       </c>
-      <c r="S2" s="1">
-        <f t="shared" ref="S2:S23" si="5">L2/100*F2</f>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T23" si="5">M2/100*G2</f>
         <v>4.2230099999999995</v>
       </c>
-      <c r="T2" s="1">
-        <f t="shared" ref="T2:T23" si="6">M2/100*F2</f>
+      <c r="U2" s="1">
+        <f t="shared" ref="U2:U23" si="6">N2/100*G2</f>
         <v>11.975699999999998</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -627,75 +636,78 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>635.20000000000005</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.05</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.48</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.21</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.42</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.13</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0.4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>1.9</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="0"/>
         <v>0.31760000000000005</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <f t="shared" si="1"/>
         <v>3.0489600000000001</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <f t="shared" si="2"/>
         <v>1.33392</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <f t="shared" si="3"/>
         <v>2.66784</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <f t="shared" si="4"/>
         <v>0.82576000000000005</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <f t="shared" si="5"/>
         <v>2.5408000000000004</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <f t="shared" si="6"/>
         <v>12.068800000000001</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -708,75 +720,78 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>641.6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.05</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.48</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.45</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.13</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.31</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>1.9</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>0.32080000000000003</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="1"/>
         <v>3.0796799999999998</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="2"/>
         <v>2.8872000000000004</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <f t="shared" si="3"/>
         <v>2.5664000000000002</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <f t="shared" si="4"/>
         <v>0.83408000000000004</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <f t="shared" si="5"/>
         <v>1.9889600000000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <f t="shared" si="6"/>
         <v>12.1904</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -789,75 +804,78 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>638.1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.06</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.52</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.23</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.44</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.31</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1.9</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>0.38285999999999998</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>3.31812</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>1.46763</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <f t="shared" si="3"/>
         <v>2.8076400000000001</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <f t="shared" si="4"/>
         <v>0.89334000000000013</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="5"/>
         <v>1.97811</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <f t="shared" si="6"/>
         <v>12.123900000000001</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -870,75 +888,78 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>642.79999999999995</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.06</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.32</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.42</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.37</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1.9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>0.38567999999999991</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="1"/>
         <v>3.8567999999999998</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>2.0569600000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="3"/>
         <v>2.6997599999999995</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <f t="shared" si="4"/>
         <v>0.89992000000000005</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="5"/>
         <v>2.3783599999999998</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <f t="shared" si="6"/>
         <v>12.213199999999999</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -951,75 +972,78 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>654.70000000000005</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.04</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.34</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.39</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.09</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>1.9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>0.26188000000000006</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="1"/>
         <v>3.6663200000000007</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>2.2259800000000003</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="3"/>
         <v>2.5533300000000003</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <f t="shared" si="4"/>
         <v>0.58923000000000003</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="5"/>
         <v>3.7317899999999997</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="6"/>
         <v>12.439300000000001</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -1032,75 +1056,78 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>661</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.06</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.22</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.42</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.12</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>0.86</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>1.9</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
         <v>0.39659999999999995</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="1"/>
         <v>3.7016000000000004</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>1.4542000000000002</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="3"/>
         <v>2.7761999999999998</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <f t="shared" si="4"/>
         <v>0.79319999999999991</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <f t="shared" si="5"/>
         <v>5.6845999999999997</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="6"/>
         <v>12.558999999999999</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -1113,75 +1140,78 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>662.3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.05</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.62</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.27</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.1</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.97</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>1.9</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
         <v>0.33115</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="1"/>
         <v>4.1062599999999998</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>1.7882100000000001</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="3"/>
         <v>2.6492</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <f t="shared" si="4"/>
         <v>0.6623</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="5"/>
         <v>6.4243100000000002</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="6"/>
         <v>12.583699999999999</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -1194,75 +1224,78 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>661.8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.05</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.61</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.43</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.39</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.85</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>1.9</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="0"/>
         <v>0.33089999999999997</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="1"/>
         <v>4.0369799999999998</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="2"/>
         <v>2.8457399999999997</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="3"/>
         <v>2.5810200000000001</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <f t="shared" si="4"/>
         <v>0.66179999999999994</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="5"/>
         <v>5.6253000000000002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="6"/>
         <v>12.574199999999999</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -1275,75 +1308,78 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>657.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.05</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.54</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.48</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.43</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>0.76</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>1.9</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <f t="shared" si="0"/>
         <v>0.32874999999999999</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="1"/>
         <v>3.5505</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>3.1559999999999997</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="3"/>
         <v>2.8272499999999998</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="4"/>
         <v>0.65749999999999997</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="5"/>
         <v>4.9969999999999999</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="6"/>
         <v>12.4925</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -1356,75 +1392,78 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>641.5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.05</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.48</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.42</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.41</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.1</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>0.88</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>1.9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <f t="shared" si="0"/>
         <v>0.32074999999999998</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="1"/>
         <v>3.0791999999999997</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>2.6942999999999997</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="3"/>
         <v>2.6301499999999995</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="4"/>
         <v>0.64149999999999996</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="5"/>
         <v>5.6452</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="6"/>
         <v>12.188499999999999</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8000</v>
       </c>
@@ -1437,75 +1476,78 @@
       <c r="D13" s="1">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>493.7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.41</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.4</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.49</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.18</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>1.9</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>0.34559000000000006</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="1"/>
         <v>2.0241699999999998</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>1.9747999999999999</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="3"/>
         <v>2.41913</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="4"/>
         <v>0.88866000000000001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="5"/>
         <v>2.3203899999999997</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="6"/>
         <v>9.3803000000000001</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8000</v>
       </c>
@@ -1518,75 +1560,78 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>489.6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.06</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.43</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.44</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>1.9</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <f t="shared" si="0"/>
         <v>0.29375999999999997</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="1"/>
         <v>2.10528</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="2"/>
         <v>0.97920000000000007</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="3"/>
         <v>2.1542400000000002</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="4"/>
         <v>0.68544000000000016</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <f t="shared" si="5"/>
         <v>2.3011199999999996</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="6"/>
         <v>9.3024000000000004</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8000</v>
       </c>
@@ -1599,75 +1644,78 @@
       <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>485.8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.06</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.49</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.45</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.43</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.48</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>1.9</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
         <v>0.29147999999999996</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="1"/>
         <v>2.38042</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="2"/>
         <v>2.1861000000000002</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="3"/>
         <v>2.08894</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="4"/>
         <v>0.68012000000000017</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="5"/>
         <v>2.3318399999999997</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="6"/>
         <v>9.2302</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8000</v>
       </c>
@@ -1680,75 +1728,78 @@
       <c r="D16" s="1">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>474.3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.23</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0.46</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.16</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>1.9</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <f t="shared" si="0"/>
         <v>0.33201000000000008</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="1"/>
         <v>2.7035099999999996</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>1.0908899999999999</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="3"/>
         <v>2.1817799999999998</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="4"/>
         <v>0.75888000000000011</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="5"/>
         <v>2.6086500000000004</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="6"/>
         <v>9.0116999999999994</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8000</v>
       </c>
@@ -1761,75 +1812,78 @@
       <c r="D17" s="1">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>465</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.31</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.42</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.16</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>0.67</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>1.9</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <f t="shared" si="0"/>
         <v>0.32550000000000007</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="1"/>
         <v>2.6040000000000005</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="2"/>
         <v>1.4415</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="3"/>
         <v>1.9529999999999998</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <f t="shared" si="4"/>
         <v>0.74399999999999999</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="5"/>
         <v>3.1154999999999999</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="6"/>
         <v>8.8349999999999991</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -1842,75 +1896,78 @@
       <c r="D18" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>455.7</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.05</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.62</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.34</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.43</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.1</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>0.73</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>1.9</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <f t="shared" si="0"/>
         <v>0.22785</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="1"/>
         <v>2.8253399999999997</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>1.54938</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <f t="shared" si="3"/>
         <v>1.9595099999999999</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <f t="shared" si="4"/>
         <v>0.45569999999999999</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <f t="shared" si="5"/>
         <v>3.3266100000000001</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <f t="shared" si="6"/>
         <v>8.6582999999999988</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -1923,75 +1980,78 @@
       <c r="D19" s="1">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>439.7</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.63</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.23</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.47</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>0.68</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>1.9</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <f t="shared" si="0"/>
         <v>0.30779000000000006</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <f t="shared" si="1"/>
         <v>2.7701099999999999</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="2"/>
         <v>1.0113099999999999</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="3"/>
         <v>2.0665899999999997</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <f t="shared" si="4"/>
         <v>0.61558000000000013</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <f t="shared" si="5"/>
         <v>2.98996</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="6"/>
         <v>8.3543000000000003</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8000</v>
       </c>
@@ -2004,75 +2064,78 @@
       <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>427.3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>0.06</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>0.61</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>0.12</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>0.65</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>1.9</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <f t="shared" si="0"/>
         <v>0.25638</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <f t="shared" si="1"/>
         <v>2.6065299999999998</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="2"/>
         <v>1.1964400000000002</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="3"/>
         <v>2.3501500000000002</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <f t="shared" si="4"/>
         <v>0.51275999999999999</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <f t="shared" si="5"/>
         <v>2.7774500000000004</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <f t="shared" si="6"/>
         <v>8.1187000000000005</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8000</v>
       </c>
@@ -2085,75 +2148,78 @@
       <c r="D21" s="1">
         <v>25</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>410.2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>0.06</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>0.68</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.44</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0.12</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>0.74</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>1.9</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <f t="shared" si="0"/>
         <v>0.24611999999999998</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="1"/>
         <v>2.7893600000000003</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>1.80488</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="3"/>
         <v>2.3791599999999997</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <f t="shared" si="4"/>
         <v>0.49223999999999996</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <f t="shared" si="5"/>
         <v>3.0354800000000002</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <f t="shared" si="6"/>
         <v>7.7937999999999992</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8000</v>
       </c>
@@ -2166,75 +2232,78 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>389.1</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.06</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.67</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.49</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.51</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.13</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>0.95</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>1.9</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="0"/>
         <v>0.23346</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="1"/>
         <v>2.6069700000000005</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>1.90659</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <f t="shared" si="3"/>
         <v>1.9844100000000002</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="4"/>
         <v>0.50583</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <f t="shared" si="5"/>
         <v>3.69645</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <f t="shared" si="6"/>
         <v>7.3929</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>8000</v>
       </c>
@@ -2247,71 +2316,74 @@
       <c r="D23" s="1">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>368.3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0.65</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.4</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>0.13</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1.21</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>1.9</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <f t="shared" si="0"/>
         <v>0.25781000000000004</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <f t="shared" si="1"/>
         <v>2.3939500000000002</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="2"/>
         <v>1.4732000000000001</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="3"/>
         <v>2.1361399999999997</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <f t="shared" si="4"/>
         <v>0.47878999999999999</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <f t="shared" si="5"/>
         <v>4.4564300000000001</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <f t="shared" si="6"/>
         <v>6.9977</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/wzrv/expdata/2007sig.xlsx
+++ b/wzrv/expdata/2007sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC69F7-456A-F24E-90BB-EF17CA863FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BB1A1-19E5-4A49-B614-A285D149DBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -721,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -805,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -973,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -1225,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -1309,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
@@ -1393,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1561,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -1645,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -1813,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -1897,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -1981,7 +1981,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>24</v>
@@ -2065,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -2149,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -2233,7 +2233,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -2317,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>

--- a/wzrv/expdata/2007sig.xlsx
+++ b/wzrv/expdata/2007sig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BB1A1-19E5-4A49-B614-A285D149DBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6823DFE-4F21-3B4C-B775-704EAC989EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
-  <si>
-    <t>cms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="29">
   <si>
     <t>eta_min</t>
   </si>
@@ -124,22 +121,26 @@
   </si>
   <si>
     <t>syst3_c</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,9 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,116 +451,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="15" width="10.83203125" style="1" customWidth="1"/>
     <col min="16" max="20" width="10.33203125" style="1"/>
     <col min="21" max="23" width="10.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="1"/>
-    <col min="25" max="25" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>630.29999999999995</v>
@@ -611,36 +609,30 @@
         <v>11.975699999999998</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.42</v>
       </c>
-      <c r="D3" s="1">
-        <v>25</v>
-      </c>
       <c r="E3" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>635.20000000000005</v>
@@ -695,36 +687,30 @@
         <v>12.068800000000001</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.63</v>
       </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
       <c r="E4" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>641.6</v>
@@ -779,36 +765,30 @@
         <v>12.1904</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.63</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.84</v>
       </c>
-      <c r="D5" s="1">
-        <v>25</v>
-      </c>
       <c r="E5" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>638.1</v>
@@ -863,36 +843,30 @@
         <v>12.123900000000001</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.84</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.05</v>
       </c>
-      <c r="D6" s="1">
-        <v>25</v>
-      </c>
       <c r="E6" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>642.79999999999995</v>
@@ -947,36 +921,30 @@
         <v>12.213199999999999</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>1.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.37</v>
       </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
       <c r="E7" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>654.70000000000005</v>
@@ -1031,36 +999,30 @@
         <v>12.439300000000001</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>1.37</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1.52</v>
       </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
       <c r="E8" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>661</v>
@@ -1115,36 +1077,30 @@
         <v>12.558999999999999</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>1.52</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1.74</v>
       </c>
-      <c r="D9" s="1">
-        <v>25</v>
-      </c>
       <c r="E9" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
         <v>662.3</v>
@@ -1199,36 +1155,30 @@
         <v>12.583699999999999</v>
       </c>
       <c r="V9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1.74</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1.95</v>
       </c>
-      <c r="D10" s="1">
-        <v>25</v>
-      </c>
       <c r="E10" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>661.8</v>
@@ -1283,36 +1233,30 @@
         <v>12.574199999999999</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>1.95</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D11" s="1">
-        <v>25</v>
-      </c>
       <c r="E11" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
         <v>657.5</v>
@@ -1367,36 +1311,30 @@
         <v>12.4925</v>
       </c>
       <c r="V11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2.4</v>
       </c>
-      <c r="D12" s="1">
-        <v>25</v>
-      </c>
       <c r="E12" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>641.5</v>
@@ -1451,36 +1389,30 @@
         <v>12.188499999999999</v>
       </c>
       <c r="V12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G13" s="1">
         <v>493.7</v>
@@ -1535,36 +1467,30 @@
         <v>9.3803000000000001</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="C14" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="D14" s="1">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="1">
         <v>489.6</v>
@@ -1619,36 +1545,30 @@
         <v>9.3024000000000004</v>
       </c>
       <c r="V14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="C15" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D15" s="1">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G15" s="1">
         <v>485.8</v>
@@ -1703,36 +1623,30 @@
         <v>9.2302</v>
       </c>
       <c r="V15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="C16" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E16" s="1">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1">
-        <v>70</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G16" s="1">
         <v>474.3</v>
@@ -1787,36 +1701,30 @@
         <v>9.0116999999999994</v>
       </c>
       <c r="V16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="C17" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="D17" s="1">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G17" s="1">
         <v>465</v>
@@ -1871,36 +1779,30 @@
         <v>8.8349999999999991</v>
       </c>
       <c r="V17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="C18" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="D18" s="1">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G18" s="1">
         <v>455.7</v>
@@ -1955,36 +1857,30 @@
         <v>8.6582999999999988</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="C19" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="D19" s="1">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1">
-        <v>70</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G19" s="1">
         <v>439.7</v>
@@ -2039,36 +1935,30 @@
         <v>8.3543000000000003</v>
       </c>
       <c r="V19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="C20" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G20" s="1">
         <v>427.3</v>
@@ -2123,36 +2013,30 @@
         <v>8.1187000000000005</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="C21" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="E21" s="1">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="D21" s="1">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G21" s="1">
         <v>410.2</v>
@@ -2207,36 +2091,30 @@
         <v>7.7937999999999992</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="C22" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G22" s="1">
         <v>389.1</v>
@@ -2291,36 +2169,30 @@
         <v>7.3929</v>
       </c>
       <c r="V22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="C23" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G23" s="1">
         <v>368.3</v>
@@ -2375,16 +2247,10 @@
         <v>6.9977</v>
       </c>
       <c r="V23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
